--- a/Modern_Physics/Expt_1/Millikan data.xlsx
+++ b/Modern_Physics/Expt_1/Millikan data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amukh\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amukh\OneDrive\Desktop\Lab Reports\Modern_Physics\Expt_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E59857F-7210-4DCA-ADFD-37215C1FA03F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7102B229-BA4C-47BC-ABD5-0F3DAAC0CC08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,70 +270,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,12 +291,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -368,31 +300,99 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -615,8 +615,8 @@
   </sheetPr>
   <dimension ref="B1:O995"/>
   <sheetViews>
-    <sheetView topLeftCell="D50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:M76"/>
+    <sheetView topLeftCell="D38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -636,21 +636,21 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="2:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
@@ -702,7 +702,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="24">
+      <c r="B6" s="35">
         <v>1</v>
       </c>
       <c r="C6" s="7">
@@ -714,40 +714,40 @@
       <c r="E6" s="7">
         <v>11.9</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="32">
         <f t="shared" ref="F6:G6" si="0">AVERAGE(D6:D10)</f>
         <v>13.520000000000001</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="32">
         <f t="shared" si="0"/>
         <v>11.66</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="32">
         <f>0.001/F6</f>
         <v>7.3964497041420106E-5</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="32">
         <v>368</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="23">
         <f>H6*9.04*10^(-9)*10^(14)</f>
         <v>66.863905325443767</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="23">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(J6*10^(-14))))</f>
         <v>7.7811082395094652E-7</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="26">
         <f>1+(F6/G6)</f>
         <v>2.1595197255574616</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="29">
         <f>((190.13*K6*K6*K6*L6)/I6)*10^(19)</f>
         <v>5.2563512014968001</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="7">
         <v>2</v>
       </c>
@@ -757,17 +757,17 @@
       <c r="E7" s="7">
         <v>11.5</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="28"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="7">
         <v>3</v>
       </c>
@@ -777,17 +777,17 @@
       <c r="E8" s="7">
         <v>12.1</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="28"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="7">
         <v>4</v>
       </c>
@@ -797,17 +797,17 @@
       <c r="E9" s="7">
         <v>11.2</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="28"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="7">
         <v>5</v>
       </c>
@@ -817,14 +817,14 @@
       <c r="E10" s="7">
         <v>11.6</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="28"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
       <c r="N10">
         <f>M6/5.2563512</f>
         <v>1.0000000002847602</v>
@@ -835,7 +835,7 @@
       </c>
     </row>
     <row r="11" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22">
+      <c r="B11" s="30">
         <v>2</v>
       </c>
       <c r="C11" s="7">
@@ -847,34 +847,34 @@
       <c r="E11" s="7">
         <v>16</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="32">
         <f t="shared" ref="F11:G11" si="1">AVERAGE(D11:D15)</f>
         <v>5.6399999999999988</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="32">
         <f t="shared" si="1"/>
         <v>15.779999999999998</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="32">
         <f>0.001/F11</f>
         <v>1.7730496453900713E-4</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="32">
         <v>420</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="23">
         <f>H11*9.04*10^(-9)*10^(14)</f>
         <v>160.28368794326244</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="23">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(J11*10^(-14))))</f>
         <v>1.2260827698491142E-6</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="26">
         <f>1+(F11/G11)</f>
         <v>1.3574144486692015</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="29">
         <f>((190.13*K11*K11*K11*L11)/I11)*10^(19)</f>
         <v>11.32591227355457</v>
       </c>
@@ -888,7 +888,7 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="7">
         <v>2</v>
       </c>
@@ -898,14 +898,14 @@
       <c r="E12" s="7">
         <v>16</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="28"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="29"/>
       <c r="N12">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -916,7 +916,7 @@
       </c>
     </row>
     <row r="13" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="7">
         <v>3</v>
       </c>
@@ -926,14 +926,14 @@
       <c r="E13" s="7">
         <v>15.8</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="28"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="29"/>
       <c r="N13">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -944,7 +944,7 @@
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="7">
         <v>4</v>
       </c>
@@ -954,14 +954,14 @@
       <c r="E14" s="7">
         <v>14.9</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="28"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="29"/>
       <c r="N14">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -972,7 +972,7 @@
       </c>
     </row>
     <row r="15" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="7">
         <v>5</v>
       </c>
@@ -982,14 +982,14 @@
       <c r="E15" s="7">
         <v>16.2</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="28"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
       <c r="N15">
         <f t="shared" si="2"/>
         <v>2.1547099580322127</v>
@@ -1000,7 +1000,7 @@
       </c>
     </row>
     <row r="16" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22">
+      <c r="B16" s="30">
         <v>3</v>
       </c>
       <c r="C16" s="7">
@@ -1012,34 +1012,34 @@
       <c r="E16" s="7">
         <v>15.2</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="32">
         <f t="shared" ref="F16:G16" si="4">AVERAGE(D16:D20)</f>
         <v>7</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="32">
         <f t="shared" si="4"/>
         <v>15.6</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="32">
         <f>0.001/F16</f>
         <v>1.4285714285714287E-4</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="32">
         <v>576</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="23">
         <f>H16*9.04*10^(-9)*10^(14)</f>
         <v>129.14285714285714</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="23">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(J16*10^(-14))))</f>
         <v>1.0965354059339508E-6</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="26">
         <f>1+(F16/G16)</f>
         <v>1.4487179487179487</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="29">
         <f>((190.13*K16*K16*K16*L16)/I16)*10^(19)</f>
         <v>6.3049258444896461</v>
       </c>
@@ -1053,7 +1053,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="7">
         <v>2</v>
       </c>
@@ -1063,14 +1063,14 @@
       <c r="E17" s="7">
         <v>16</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="28"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="29"/>
       <c r="N17">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1081,7 +1081,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="7">
         <v>3</v>
       </c>
@@ -1091,14 +1091,14 @@
       <c r="E18" s="7">
         <v>15.8</v>
       </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="28"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="29"/>
       <c r="N18">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1109,7 +1109,7 @@
       </c>
     </row>
     <row r="19" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="7">
         <v>4</v>
       </c>
@@ -1119,14 +1119,14 @@
       <c r="E19" s="7">
         <v>15.4</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="28"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="29"/>
       <c r="N19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1137,7 +1137,7 @@
       </c>
     </row>
     <row r="20" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="7">
         <v>5</v>
       </c>
@@ -1147,14 +1147,14 @@
       <c r="E20" s="7">
         <v>15.6</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="28"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
       <c r="N20">
         <f>M16/5.2563512</f>
         <v>1.1994871736290462</v>
@@ -1165,7 +1165,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="22">
+      <c r="B21" s="30">
         <v>4</v>
       </c>
       <c r="C21" s="7">
@@ -1177,34 +1177,34 @@
       <c r="E21" s="7">
         <v>10.9</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="32">
         <f t="shared" ref="F21:G21" si="5">AVERAGE(D21:D25)</f>
         <v>6.76</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="32">
         <f t="shared" si="5"/>
         <v>11.2</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="32">
         <f>0.001/F21</f>
         <v>1.4792899408284024E-4</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="32">
         <v>654</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="23">
         <f>H21*9.04*10^(-9)*10^(14)</f>
         <v>133.72781065088756</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="23">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(J21*10^(-14))))</f>
         <v>1.1165199015265772E-6</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="26">
         <f>1+(F21/G21)</f>
         <v>1.6035714285714286</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M21" s="29">
         <f>((190.13*K21*K21*K21*L21)/I21)*10^(19)</f>
         <v>6.488743627134502</v>
       </c>
@@ -1218,7 +1218,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="22"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="7">
         <v>2</v>
       </c>
@@ -1228,14 +1228,14 @@
       <c r="E22" s="7">
         <v>11.2</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="28"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="29"/>
       <c r="N22">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="22"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="7">
         <v>3</v>
       </c>
@@ -1256,14 +1256,14 @@
       <c r="E23" s="7">
         <v>11.3</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="28"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="29"/>
       <c r="N23">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1274,7 +1274,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="7">
         <v>4</v>
       </c>
@@ -1284,14 +1284,14 @@
       <c r="E24" s="7">
         <v>11.4</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="28"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="29"/>
       <c r="N24">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1302,7 +1302,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="22"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="7">
         <v>5</v>
       </c>
@@ -1312,14 +1312,14 @@
       <c r="E25" s="7">
         <v>11.2</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="28"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="29"/>
       <c r="N25">
         <f t="shared" si="2"/>
         <v>1.2344577788361062</v>
@@ -1330,7 +1330,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="22">
+      <c r="B26" s="30">
         <v>5</v>
       </c>
       <c r="C26" s="6">
@@ -1342,34 +1342,34 @@
       <c r="E26" s="7">
         <v>10.8</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="32">
         <f t="shared" ref="F26:G26" si="6">AVERAGE(D26:D30)</f>
         <v>2.5799999999999996</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="32">
         <f t="shared" si="6"/>
         <v>10.640000000000002</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="32">
         <f>0.001/F26</f>
         <v>3.8759689922480625E-4</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="32">
         <v>594</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="23">
         <f>H26*9.04*10^(-9)*10^(14)</f>
         <v>350.38759689922483</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="23">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(J26*10^(-14))))</f>
         <v>1.8317045502781455E-6</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="26">
         <f>1+(F26/G26)</f>
         <v>1.2424812030075187</v>
       </c>
-      <c r="M26" s="28">
+      <c r="M26" s="29">
         <f>((190.13*K26*K26*K26*L26)/I26)*10^(19)</f>
         <v>24.441074974309977</v>
       </c>
@@ -1383,7 +1383,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="6">
         <v>2</v>
       </c>
@@ -1393,14 +1393,14 @@
       <c r="E27" s="7">
         <v>10.4</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="28"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="29"/>
       <c r="N27">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1411,7 +1411,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="22"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="6">
         <v>3</v>
       </c>
@@ -1421,14 +1421,14 @@
       <c r="E28" s="7">
         <v>10.6</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="28"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="29"/>
       <c r="N28">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1439,7 +1439,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="6">
         <v>4</v>
       </c>
@@ -1449,14 +1449,14 @@
       <c r="E29" s="7">
         <v>10.8</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="28"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="29"/>
       <c r="N29">
         <f>M25/5.2563512</f>
         <v>0</v>
@@ -1467,7 +1467,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="6">
         <v>5</v>
       </c>
@@ -1477,14 +1477,14 @@
       <c r="E30" s="7">
         <v>10.6</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="28"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="29"/>
       <c r="N30">
         <f t="shared" si="2"/>
         <v>4.6498177241866898</v>
@@ -1499,31 +1499,31 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="8">
+      <c r="F31" s="39">
         <v>10.199999999999999</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="39">
         <v>12.3</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="32">
         <f>0.001/F31</f>
         <v>9.8039215686274519E-5</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="42">
         <v>460</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="42">
         <v>31.125489000000002</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="23">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(J31*10^(-14))))</f>
         <v>5.1877755586008278E-7</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="26">
         <f>1+(F31/G31)</f>
         <v>1.8292682926829267</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="41">
         <f>((190.13*K31*K31*K31*L31)/I31)*10^(19)</f>
         <v>1.0556349473397606</v>
       </c>
@@ -1533,56 +1533,56 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="11"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="38"/>
     </row>
     <row r="33" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="11"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="38"/>
     </row>
     <row r="34" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="11"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="38"/>
     </row>
     <row r="35" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="11"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="38"/>
     </row>
     <row r="36" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
@@ -1668,7 +1668,7 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="24">
+      <c r="B42" s="35">
         <v>1</v>
       </c>
       <c r="C42" s="7">
@@ -1680,40 +1680,40 @@
       <c r="E42" s="7">
         <v>16.100000000000001</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="32">
         <f t="shared" ref="F42" si="7">AVERAGE(D42:D46)</f>
         <v>10.120000000000001</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="32">
         <f t="shared" ref="G42" si="8">AVERAGE(E42:E46)</f>
         <v>15.1</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="32">
         <f>0.001/F42</f>
         <v>9.8814229249011856E-5</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="32">
         <v>378</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="23">
         <f>H42*9.04*10^(-9)*10^(14)</f>
         <v>89.328063241106705</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="23">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(J42*10^(-14))))</f>
         <v>9.0540686699995317E-7</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="26">
         <f>1+(F42/G42)</f>
         <v>1.6701986754966889</v>
       </c>
-      <c r="M42" s="28">
+      <c r="M42" s="29">
         <f>((190.13*K42*K42*K42*L42)/I42)*10^(19)</f>
         <v>6.2353140968573868</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="25"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="7">
         <v>2</v>
       </c>
@@ -1723,17 +1723,17 @@
       <c r="E43" s="7">
         <v>14.6</v>
       </c>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="28"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="29"/>
     </row>
     <row r="44" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="25"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="7">
         <v>3</v>
       </c>
@@ -1743,17 +1743,17 @@
       <c r="E44" s="7">
         <v>14.8</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="28"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="25"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="7">
         <v>4</v>
       </c>
@@ -1763,17 +1763,17 @@
       <c r="E45" s="7">
         <v>14.2</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="28"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="25"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="7">
         <v>5</v>
       </c>
@@ -1783,17 +1783,17 @@
       <c r="E46" s="7">
         <v>15.8</v>
       </c>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="28"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="22">
+      <c r="B47" s="30">
         <v>2</v>
       </c>
       <c r="C47" s="7">
@@ -1805,40 +1805,40 @@
       <c r="E47" s="7">
         <v>13.7</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="32">
         <f t="shared" ref="F47" si="9">AVERAGE(D47:D51)</f>
         <v>8.5599999999999987</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="32">
         <f t="shared" ref="G47" si="10">AVERAGE(E47:E51)</f>
         <v>13.84</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H47" s="32">
         <f>0.001/F47</f>
         <v>1.1682242990654207E-4</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="32">
         <v>450</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="23">
         <f>H47*9.04*10^(-9)*10^(14)</f>
         <v>105.60747663551403</v>
       </c>
-      <c r="K47" s="14">
+      <c r="K47" s="23">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(J47*10^(-14))))</f>
         <v>9.8785667208450748E-7</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L47" s="26">
         <f>1+(F47/G47)</f>
         <v>1.6184971098265897</v>
       </c>
-      <c r="M47" s="28">
+      <c r="M47" s="29">
         <f>((190.13*K47*K47*K47*L47)/I47)*10^(19)</f>
         <v>6.592222770654999</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="22"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="7">
         <v>2</v>
       </c>
@@ -1848,17 +1848,17 @@
       <c r="E48" s="7">
         <v>13.9</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="28"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="29"/>
     </row>
     <row r="49" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="22"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="7">
         <v>3</v>
       </c>
@@ -1868,17 +1868,17 @@
       <c r="E49" s="7">
         <v>14.9</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="28"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="29"/>
     </row>
     <row r="50" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="22"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="7">
         <v>4</v>
       </c>
@@ -1888,17 +1888,17 @@
       <c r="E50" s="7">
         <v>13.3</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="28"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="29"/>
     </row>
     <row r="51" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="22"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="7">
         <v>5</v>
       </c>
@@ -1908,17 +1908,17 @@
       <c r="E51" s="7">
         <v>13.4</v>
       </c>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="28"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="29"/>
     </row>
     <row r="52" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="22">
+      <c r="B52" s="30">
         <v>3</v>
       </c>
       <c r="C52" s="7">
@@ -1930,40 +1930,40 @@
       <c r="E52" s="7">
         <v>7</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="32">
         <f t="shared" ref="F52" si="11">AVERAGE(D52:D56)</f>
         <v>10.14</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="32">
         <f t="shared" ref="G52" si="12">AVERAGE(E52:E56)</f>
         <v>6.4</v>
       </c>
-      <c r="H52" s="18">
+      <c r="H52" s="32">
         <f>0.001/F52</f>
         <v>9.8619329388560155E-5</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="32">
         <v>343</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="23">
         <f>H52*9.04*10^(-9)*10^(14)</f>
         <v>89.15187376725838</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="23">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(J52*10^(-14))))</f>
         <v>9.0447518096317815E-7</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L52" s="26">
         <f>1+(F52/G52)</f>
         <v>2.5843750000000001</v>
       </c>
-      <c r="M52" s="28">
+      <c r="M52" s="29">
         <f>((190.13*K52*K52*K52*L52)/I52)*10^(19)</f>
         <v>10.599906196368407</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="22"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="7">
         <v>2</v>
       </c>
@@ -1973,17 +1973,17 @@
       <c r="E53" s="7">
         <v>6.4</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="28"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="29"/>
     </row>
     <row r="54" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="22"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="7">
         <v>3</v>
       </c>
@@ -1993,17 +1993,17 @@
       <c r="E54" s="7">
         <v>6.2</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="28"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="29"/>
     </row>
     <row r="55" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="22"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="7">
         <v>4</v>
       </c>
@@ -2013,17 +2013,17 @@
       <c r="E55" s="7">
         <v>6.2</v>
       </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="28"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="29"/>
     </row>
     <row r="56" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="22"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="7">
         <v>5</v>
       </c>
@@ -2033,17 +2033,17 @@
       <c r="E56" s="7">
         <v>6.2</v>
       </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="28"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="29"/>
     </row>
     <row r="57" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="22">
+      <c r="B57" s="30">
         <v>4</v>
       </c>
       <c r="C57" s="7">
@@ -2055,40 +2055,40 @@
       <c r="E57" s="7">
         <v>7</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="32">
         <f t="shared" ref="F57" si="13">AVERAGE(D57:D61)</f>
         <v>11.260000000000002</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="32">
         <f t="shared" ref="G57" si="14">AVERAGE(E57:E61)</f>
         <v>6.8400000000000007</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H57" s="32">
         <f>0.001/F57</f>
         <v>8.8809946714031967E-5</v>
       </c>
-      <c r="I57" s="18">
+      <c r="I57" s="32">
         <v>500</v>
       </c>
-      <c r="J57" s="14">
+      <c r="J57" s="23">
         <f>H57*9.04*10^(-9)*10^(14)</f>
         <v>80.284191829484897</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K57" s="23">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(J57*10^(-14))))</f>
         <v>8.5633382046550626E-7</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L57" s="26">
         <f>1+(F57/G57)</f>
         <v>2.6461988304093569</v>
       </c>
-      <c r="M57" s="28">
+      <c r="M57" s="29">
         <f>((190.13*K57*K57*K57*L57)/I57)*10^(19)</f>
         <v>6.3187679522060334</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="22"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="7">
         <v>2</v>
       </c>
@@ -2098,17 +2098,17 @@
       <c r="E58" s="7">
         <v>6.6</v>
       </c>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="28"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="27"/>
+      <c r="M58" s="29"/>
     </row>
     <row r="59" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="22"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="7">
         <v>3</v>
       </c>
@@ -2118,17 +2118,17 @@
       <c r="E59" s="7">
         <v>6.8</v>
       </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="28"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="29"/>
     </row>
     <row r="60" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="22"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="7">
         <v>4</v>
       </c>
@@ -2138,17 +2138,17 @@
       <c r="E60" s="7">
         <v>7.1</v>
       </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="28"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="29"/>
     </row>
     <row r="61" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="22"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="7">
         <v>5</v>
       </c>
@@ -2158,17 +2158,17 @@
       <c r="E61" s="7">
         <v>6.7</v>
       </c>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="28"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="29"/>
     </row>
     <row r="62" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="22">
+      <c r="B62" s="30">
         <v>5</v>
       </c>
       <c r="C62" s="6">
@@ -2180,40 +2180,40 @@
       <c r="E62" s="7">
         <v>2.5</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="32">
         <f t="shared" ref="F62" si="15">AVERAGE(D62:D66)</f>
         <v>10.841999999999999</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="32">
         <f t="shared" ref="G62" si="16">AVERAGE(E62:E66)</f>
         <v>2.5</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="32">
         <f>0.001/F62</f>
         <v>9.2233905183545479E-5</v>
       </c>
-      <c r="I62" s="18">
+      <c r="I62" s="32">
         <v>484</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J62" s="23">
         <f>H62*9.04*10^(-9)*10^(14)</f>
         <v>83.379450285925117</v>
       </c>
-      <c r="K62" s="14">
+      <c r="K62" s="23">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(J62*10^(-14))))</f>
         <v>8.7342563577793115E-7</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L62" s="26">
         <f>1+(F62/G62)</f>
         <v>5.3367999999999993</v>
       </c>
-      <c r="M62" s="28">
+      <c r="M62" s="29">
         <f>((190.13*K62*K62*K62*L62)/I62)*10^(19)</f>
         <v>13.968958214497798</v>
       </c>
     </row>
     <row r="63" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="22"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="6">
         <v>2</v>
       </c>
@@ -2223,17 +2223,17 @@
       <c r="E63" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="28"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="29"/>
     </row>
     <row r="64" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="22"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="6">
         <v>3</v>
       </c>
@@ -2243,17 +2243,17 @@
       <c r="E64" s="7">
         <v>2.4</v>
       </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="28"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="29"/>
     </row>
     <row r="65" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="22"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="6">
         <v>4</v>
       </c>
@@ -2263,17 +2263,17 @@
       <c r="E65" s="7">
         <v>2.6</v>
       </c>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="28"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="27"/>
+      <c r="M65" s="29"/>
     </row>
     <row r="66" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="23"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="6">
         <v>5</v>
       </c>
@@ -2283,17 +2283,17 @@
       <c r="E66" s="7">
         <v>2.7</v>
       </c>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="28"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="29"/>
     </row>
     <row r="67" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="22">
+      <c r="B67" s="30">
         <v>6</v>
       </c>
       <c r="C67" s="7">
@@ -2305,40 +2305,40 @@
       <c r="E67" s="7">
         <v>8.9</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="32">
         <f t="shared" ref="F67" si="17">AVERAGE(D67:D71)</f>
         <v>19.919999999999998</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="32">
         <f t="shared" ref="G67" si="18">AVERAGE(E67:E71)</f>
         <v>8.36</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H67" s="32">
         <f>0.001/F67</f>
         <v>5.0200803212851415E-5</v>
       </c>
-      <c r="I67" s="18">
+      <c r="I67" s="32">
         <v>400</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J67" s="23">
         <f>H67*9.04*10^(-9)*10^(14)</f>
         <v>45.381526104417681</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K67" s="23">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(J67*10^(-14))))</f>
         <v>6.3428044944580871E-7</v>
       </c>
-      <c r="L67" s="17">
+      <c r="L67" s="26">
         <f>1+(F67/G67)</f>
         <v>3.3827751196172247</v>
       </c>
-      <c r="M67" s="28">
+      <c r="M67" s="29">
         <f>((190.13*K67*K67*K67*L67)/I67)*10^(19)</f>
         <v>4.1030589846290964</v>
       </c>
     </row>
     <row r="68" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="22"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="7">
         <v>2</v>
       </c>
@@ -2348,17 +2348,17 @@
       <c r="E68" s="7">
         <v>7.7</v>
       </c>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="28"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="29"/>
     </row>
     <row r="69" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="22"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="7">
         <v>3</v>
       </c>
@@ -2368,17 +2368,17 @@
       <c r="E69" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="28"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="29"/>
     </row>
     <row r="70" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="22"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="7">
         <v>4</v>
       </c>
@@ -2388,17 +2388,17 @@
       <c r="E70" s="7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="28"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="29"/>
     </row>
     <row r="71" spans="2:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="22"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="7">
         <v>5</v>
       </c>
@@ -2408,17 +2408,17 @@
       <c r="E71" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="28"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="29"/>
     </row>
     <row r="72" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="22">
+      <c r="B72" s="30">
         <v>7</v>
       </c>
       <c r="C72" s="6">
@@ -2430,40 +2430,40 @@
       <c r="E72" s="7">
         <v>10.6</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="32">
         <f t="shared" ref="F72" si="19">AVERAGE(D72:D76)</f>
         <v>16.54</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G72" s="32">
         <f t="shared" ref="G72" si="20">AVERAGE(E72:E76)</f>
         <v>9.2600000000000016</v>
       </c>
-      <c r="H72" s="18">
+      <c r="H72" s="32">
         <f>0.001/F72</f>
         <v>6.0459492140266024E-5</v>
       </c>
-      <c r="I72" s="18">
+      <c r="I72" s="32">
         <v>410</v>
       </c>
-      <c r="J72" s="14">
+      <c r="J72" s="23">
         <f>H72*9.04*10^(-9)*10^(14)</f>
         <v>54.655380894800487</v>
       </c>
-      <c r="K72" s="14">
+      <c r="K72" s="23">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(J72*10^(-14))))</f>
         <v>6.9980675911825989E-7</v>
       </c>
-      <c r="L72" s="17">
+      <c r="L72" s="26">
         <f>1+(F72/G72)</f>
         <v>2.7861771058315332</v>
       </c>
-      <c r="M72" s="28">
+      <c r="M72" s="29">
         <f>((190.13*K72*K72*K72*L72)/I72)*10^(19)</f>
         <v>4.4280234201224369</v>
       </c>
     </row>
     <row r="73" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="22"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="6">
         <v>2</v>
       </c>
@@ -2473,17 +2473,17 @@
       <c r="E73" s="7">
         <v>9.9</v>
       </c>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="28"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="29"/>
     </row>
     <row r="74" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="22"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="6">
         <v>3</v>
       </c>
@@ -2493,17 +2493,17 @@
       <c r="E74" s="7">
         <v>9.6</v>
       </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="28"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="29"/>
     </row>
     <row r="75" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="22"/>
+      <c r="B75" s="30"/>
       <c r="C75" s="6">
         <v>4</v>
       </c>
@@ -2513,17 +2513,17 @@
       <c r="E75" s="7">
         <v>8.1</v>
       </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="28"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="29"/>
     </row>
     <row r="76" spans="2:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="23"/>
+      <c r="B76" s="31"/>
       <c r="C76" s="6">
         <v>5</v>
       </c>
@@ -2533,14 +2533,14 @@
       <c r="E76" s="7">
         <v>8.1</v>
       </c>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="28"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="29"/>
     </row>
     <row r="77" spans="2:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
@@ -2588,499 +2588,499 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B82" s="37" t="s">
+      <c r="B82" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="37" t="s">
+      <c r="C82" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="37" t="s">
+      <c r="D82" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="37" t="s">
+      <c r="E82" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F82" s="37" t="s">
+      <c r="F82" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G82" s="38" t="s">
+      <c r="G82" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H82" s="38" t="s">
+      <c r="H82" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B83" s="31">
+      <c r="B83" s="22">
         <v>1</v>
       </c>
-      <c r="C83" s="32">
+      <c r="C83" s="8">
         <v>1</v>
       </c>
-      <c r="D83" s="32">
+      <c r="D83" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E83" s="33">
+      <c r="E83" s="21">
         <f>AVERAGE(D83:D87)</f>
         <v>4.6399999999999997</v>
       </c>
-      <c r="F83" s="33">
+      <c r="F83" s="21">
         <f>0.001/E83</f>
         <v>2.1551724137931037E-4</v>
       </c>
-      <c r="G83" s="34"/>
-      <c r="H83" s="35">
+      <c r="G83" s="9"/>
+      <c r="H83" s="20">
         <f>AVERAGE(G83:G87)</f>
         <v>238</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B84" s="31"/>
-      <c r="C84" s="32">
+      <c r="B84" s="22"/>
+      <c r="C84" s="8">
         <v>2</v>
       </c>
-      <c r="D84" s="32">
+      <c r="D84" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="34">
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="9">
         <v>238</v>
       </c>
-      <c r="H84" s="35"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="85" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B85" s="31"/>
-      <c r="C85" s="32">
+      <c r="B85" s="22"/>
+      <c r="C85" s="8">
         <v>3</v>
       </c>
-      <c r="D85" s="32">
+      <c r="D85" s="8">
         <v>4.5</v>
       </c>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="34">
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="9">
         <v>238</v>
       </c>
-      <c r="H85" s="35"/>
+      <c r="H85" s="20"/>
     </row>
     <row r="86" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B86" s="31"/>
-      <c r="C86" s="32">
+      <c r="B86" s="22"/>
+      <c r="C86" s="8">
         <v>4</v>
       </c>
-      <c r="D86" s="32">
+      <c r="D86" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="34">
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="9">
         <v>238</v>
       </c>
-      <c r="H86" s="35"/>
+      <c r="H86" s="20"/>
     </row>
     <row r="87" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B87" s="31"/>
-      <c r="C87" s="32">
+      <c r="B87" s="22"/>
+      <c r="C87" s="8">
         <v>5</v>
       </c>
-      <c r="D87" s="32">
+      <c r="D87" s="8">
         <v>4.8</v>
       </c>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="35"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="20"/>
     </row>
     <row r="88" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="31">
+      <c r="B88" s="22">
         <v>2</v>
       </c>
-      <c r="C88" s="32">
+      <c r="C88" s="8">
         <v>1</v>
       </c>
-      <c r="D88" s="32">
+      <c r="D88" s="8">
         <v>11.5</v>
       </c>
-      <c r="E88" s="33">
+      <c r="E88" s="21">
         <f t="shared" ref="E88" si="21">AVERAGE(D88:D92)</f>
         <v>11.275</v>
       </c>
-      <c r="F88" s="33">
+      <c r="F88" s="21">
         <f t="shared" ref="F88" si="22">0.001/E88</f>
         <v>8.869179600886918E-5</v>
       </c>
-      <c r="G88" s="34"/>
-      <c r="H88" s="35">
+      <c r="G88" s="9"/>
+      <c r="H88" s="20">
         <f t="shared" ref="H88" si="23">AVERAGE(G88:G92)</f>
         <v>306.33333333333331</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="31"/>
-      <c r="C89" s="32">
+      <c r="B89" s="22"/>
+      <c r="C89" s="8">
         <v>2</v>
       </c>
-      <c r="D89" s="32">
+      <c r="D89" s="8">
         <v>11.2</v>
       </c>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="34">
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="9">
         <v>306</v>
       </c>
-      <c r="H89" s="35"/>
+      <c r="H89" s="20"/>
     </row>
     <row r="90" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="31"/>
-      <c r="C90" s="32">
+      <c r="B90" s="22"/>
+      <c r="C90" s="8">
         <v>3</v>
       </c>
-      <c r="D90" s="32">
+      <c r="D90" s="8">
         <v>11.3</v>
       </c>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="34">
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="9">
         <v>306</v>
       </c>
-      <c r="H90" s="35"/>
+      <c r="H90" s="20"/>
     </row>
     <row r="91" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="31"/>
-      <c r="C91" s="32">
+      <c r="B91" s="22"/>
+      <c r="C91" s="8">
         <v>4</v>
       </c>
-      <c r="D91" s="32">
+      <c r="D91" s="8">
         <v>11.1</v>
       </c>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="34">
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="9">
         <v>307</v>
       </c>
-      <c r="H91" s="35"/>
+      <c r="H91" s="20"/>
     </row>
     <row r="92" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="31"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="35"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="20"/>
     </row>
     <row r="93" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="31">
+      <c r="B93" s="22">
         <v>3</v>
       </c>
-      <c r="C93" s="32">
+      <c r="C93" s="8">
         <v>1</v>
       </c>
-      <c r="D93" s="32">
+      <c r="D93" s="8">
         <v>10.6</v>
       </c>
-      <c r="E93" s="33">
+      <c r="E93" s="21">
         <f t="shared" ref="E93" si="24">AVERAGE(D93:D97)</f>
         <v>10.125</v>
       </c>
-      <c r="F93" s="33">
+      <c r="F93" s="21">
         <f t="shared" ref="F93" si="25">0.001/E93</f>
         <v>9.876543209876544E-5</v>
       </c>
-      <c r="G93" s="34"/>
-      <c r="H93" s="35">
+      <c r="G93" s="9"/>
+      <c r="H93" s="20">
         <f t="shared" ref="H93" si="26">AVERAGE(G93:G97)</f>
         <v>230</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="31"/>
-      <c r="C94" s="32">
+      <c r="B94" s="22"/>
+      <c r="C94" s="8">
         <v>2</v>
       </c>
-      <c r="D94" s="32">
+      <c r="D94" s="8">
         <v>10.3</v>
       </c>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="34">
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="9">
         <v>230</v>
       </c>
-      <c r="H94" s="35"/>
+      <c r="H94" s="20"/>
     </row>
     <row r="95" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="31"/>
-      <c r="C95" s="32">
+      <c r="B95" s="22"/>
+      <c r="C95" s="8">
         <v>3</v>
       </c>
-      <c r="D95" s="32">
+      <c r="D95" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="34">
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="9">
         <v>229</v>
       </c>
-      <c r="H95" s="35"/>
+      <c r="H95" s="20"/>
     </row>
     <row r="96" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="31"/>
-      <c r="C96" s="32">
+      <c r="B96" s="22"/>
+      <c r="C96" s="8">
         <v>4</v>
       </c>
-      <c r="D96" s="32">
+      <c r="D96" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="34">
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="9">
         <v>231</v>
       </c>
-      <c r="H96" s="35"/>
+      <c r="H96" s="20"/>
     </row>
     <row r="97" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="31"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="35"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="20"/>
     </row>
     <row r="98" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="31">
+      <c r="B98" s="22">
         <v>4</v>
       </c>
-      <c r="C98" s="32">
+      <c r="C98" s="8">
         <v>1</v>
       </c>
-      <c r="D98" s="32">
+      <c r="D98" s="8">
         <v>15.7</v>
       </c>
-      <c r="E98" s="33">
+      <c r="E98" s="21">
         <f t="shared" ref="E98" si="27">AVERAGE(D98:D102)</f>
         <v>15.15</v>
       </c>
-      <c r="F98" s="33">
+      <c r="F98" s="21">
         <f t="shared" ref="F98" si="28">0.001/E98</f>
         <v>6.6006600660066002E-5</v>
       </c>
-      <c r="G98" s="34"/>
-      <c r="H98" s="35">
+      <c r="G98" s="9"/>
+      <c r="H98" s="20">
         <f t="shared" ref="H98" si="29">AVERAGE(G98:G102)</f>
         <v>360</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="31"/>
-      <c r="C99" s="32">
+      <c r="B99" s="22"/>
+      <c r="C99" s="8">
         <v>2</v>
       </c>
-      <c r="D99" s="32">
+      <c r="D99" s="8">
         <v>14.7</v>
       </c>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="34">
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="9">
         <v>360</v>
       </c>
-      <c r="H99" s="35"/>
+      <c r="H99" s="20"/>
     </row>
     <row r="100" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="31"/>
-      <c r="C100" s="32">
+      <c r="B100" s="22"/>
+      <c r="C100" s="8">
         <v>3</v>
       </c>
-      <c r="D100" s="32">
+      <c r="D100" s="8">
         <v>15.3</v>
       </c>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="34">
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="9">
         <v>359</v>
       </c>
-      <c r="H100" s="35"/>
+      <c r="H100" s="20"/>
     </row>
     <row r="101" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="31"/>
-      <c r="C101" s="32">
+      <c r="B101" s="22"/>
+      <c r="C101" s="8">
         <v>4</v>
       </c>
-      <c r="D101" s="32">
+      <c r="D101" s="8">
         <v>14.9</v>
       </c>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="34">
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="9">
         <v>361</v>
       </c>
-      <c r="H101" s="35"/>
+      <c r="H101" s="20"/>
     </row>
     <row r="102" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="31"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="34"/>
-      <c r="H102" s="35"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="20"/>
     </row>
     <row r="103" spans="2:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="31">
+      <c r="B103" s="22">
         <v>5</v>
       </c>
-      <c r="C103" s="36">
+      <c r="C103" s="10">
         <v>1</v>
       </c>
-      <c r="D103" s="32">
+      <c r="D103" s="8">
         <v>13.6</v>
       </c>
-      <c r="E103" s="33">
+      <c r="E103" s="21">
         <f t="shared" ref="E103" si="30">AVERAGE(D103:D107)</f>
         <v>13.525</v>
       </c>
-      <c r="F103" s="33">
+      <c r="F103" s="21">
         <f t="shared" ref="F103" si="31">0.001/E103</f>
         <v>7.3937153419593348E-5</v>
       </c>
-      <c r="G103" s="34"/>
-      <c r="H103" s="35">
+      <c r="G103" s="9"/>
+      <c r="H103" s="20">
         <f t="shared" ref="H103" si="32">AVERAGE(G103:G107)</f>
         <v>264</v>
       </c>
     </row>
     <row r="104" spans="2:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="31"/>
-      <c r="C104" s="36">
+      <c r="B104" s="22"/>
+      <c r="C104" s="10">
         <v>2</v>
       </c>
-      <c r="D104" s="32">
+      <c r="D104" s="8">
         <v>13.1</v>
       </c>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="34">
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="9">
         <v>266</v>
       </c>
-      <c r="H104" s="35"/>
+      <c r="H104" s="20"/>
     </row>
     <row r="105" spans="2:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="31"/>
-      <c r="C105" s="36">
+      <c r="B105" s="22"/>
+      <c r="C105" s="10">
         <v>3</v>
       </c>
-      <c r="D105" s="32">
+      <c r="D105" s="8">
         <v>13.9</v>
       </c>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="34">
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="9">
         <v>264</v>
       </c>
-      <c r="H105" s="35"/>
+      <c r="H105" s="20"/>
     </row>
     <row r="106" spans="2:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="31"/>
-      <c r="C106" s="36">
+      <c r="B106" s="22"/>
+      <c r="C106" s="10">
         <v>4</v>
       </c>
-      <c r="D106" s="32">
+      <c r="D106" s="8">
         <v>13.5</v>
       </c>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="34">
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="9">
         <v>262</v>
       </c>
-      <c r="H106" s="35"/>
+      <c r="H106" s="20"/>
     </row>
     <row r="107" spans="2:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="31"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
-      <c r="G107" s="34"/>
-      <c r="H107" s="35"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="20"/>
     </row>
     <row r="108" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="31">
+      <c r="B108" s="22">
         <v>6</v>
       </c>
-      <c r="C108" s="32">
+      <c r="C108" s="8">
         <v>1</v>
       </c>
-      <c r="D108" s="32">
+      <c r="D108" s="8">
         <v>13.8</v>
       </c>
-      <c r="E108" s="33">
+      <c r="E108" s="21">
         <f t="shared" ref="E108" si="33">AVERAGE(D108:D112)</f>
         <v>13.95</v>
       </c>
-      <c r="F108" s="33">
+      <c r="F108" s="21">
         <f t="shared" ref="F108" si="34">0.001/E108</f>
         <v>7.1684587813620072E-5</v>
       </c>
-      <c r="G108" s="34"/>
-      <c r="H108" s="35">
+      <c r="G108" s="9"/>
+      <c r="H108" s="20">
         <f t="shared" ref="H108" si="35">AVERAGE(G108:G112)</f>
         <v>407.66666666666669</v>
       </c>
     </row>
     <row r="109" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="31"/>
-      <c r="C109" s="32">
+      <c r="B109" s="22"/>
+      <c r="C109" s="8">
         <v>2</v>
       </c>
-      <c r="D109" s="32">
+      <c r="D109" s="8">
         <v>14.1</v>
       </c>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="34">
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="9">
         <v>407</v>
       </c>
-      <c r="H109" s="35"/>
+      <c r="H109" s="20"/>
     </row>
     <row r="110" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="31"/>
-      <c r="C110" s="32">
+      <c r="B110" s="22"/>
+      <c r="C110" s="8">
         <v>3</v>
       </c>
-      <c r="D110" s="32">
+      <c r="D110" s="8">
         <v>13.7</v>
       </c>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="34">
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="9">
         <v>409</v>
       </c>
-      <c r="H110" s="35"/>
+      <c r="H110" s="20"/>
     </row>
     <row r="111" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="31"/>
-      <c r="C111" s="32">
+      <c r="B111" s="22"/>
+      <c r="C111" s="8">
         <v>4</v>
       </c>
-      <c r="D111" s="32">
+      <c r="D111" s="8">
         <v>14.2</v>
       </c>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="34">
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="9">
         <v>407</v>
       </c>
-      <c r="H111" s="35"/>
+      <c r="H111" s="20"/>
     </row>
     <row r="112" spans="2:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="31"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="35"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="20"/>
     </row>
     <row r="113" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
@@ -11031,118 +11031,14 @@
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="H88:H92"/>
-    <mergeCell ref="H93:H97"/>
-    <mergeCell ref="H98:H102"/>
-    <mergeCell ref="H103:H107"/>
-    <mergeCell ref="H108:H112"/>
-    <mergeCell ref="F88:F92"/>
-    <mergeCell ref="F93:F97"/>
-    <mergeCell ref="F98:F102"/>
-    <mergeCell ref="F103:F107"/>
-    <mergeCell ref="F108:F112"/>
-    <mergeCell ref="E88:E92"/>
-    <mergeCell ref="E93:E97"/>
-    <mergeCell ref="E98:E102"/>
-    <mergeCell ref="E103:E107"/>
-    <mergeCell ref="E108:E112"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="J72:J76"/>
-    <mergeCell ref="K72:K76"/>
-    <mergeCell ref="L72:L76"/>
-    <mergeCell ref="M72:M76"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="E83:E87"/>
-    <mergeCell ref="F83:F87"/>
-    <mergeCell ref="H83:H87"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="H72:H76"/>
-    <mergeCell ref="I72:I76"/>
-    <mergeCell ref="J62:J66"/>
-    <mergeCell ref="K62:K66"/>
-    <mergeCell ref="L62:L66"/>
-    <mergeCell ref="M62:M66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="F67:F71"/>
-    <mergeCell ref="G67:G71"/>
-    <mergeCell ref="H67:H71"/>
-    <mergeCell ref="I67:I71"/>
-    <mergeCell ref="J67:J71"/>
-    <mergeCell ref="K67:K71"/>
-    <mergeCell ref="L67:L71"/>
-    <mergeCell ref="M67:M71"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="G62:G66"/>
-    <mergeCell ref="H62:H66"/>
-    <mergeCell ref="I62:I66"/>
-    <mergeCell ref="J52:J56"/>
-    <mergeCell ref="K52:K56"/>
-    <mergeCell ref="L52:L56"/>
-    <mergeCell ref="M52:M56"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="G57:G61"/>
-    <mergeCell ref="H57:H61"/>
-    <mergeCell ref="I57:I61"/>
-    <mergeCell ref="J57:J61"/>
-    <mergeCell ref="K57:K61"/>
-    <mergeCell ref="L57:L61"/>
-    <mergeCell ref="M57:M61"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="G52:G56"/>
-    <mergeCell ref="H52:H56"/>
-    <mergeCell ref="I52:I56"/>
-    <mergeCell ref="J42:J46"/>
-    <mergeCell ref="K42:K46"/>
-    <mergeCell ref="L42:L46"/>
-    <mergeCell ref="M42:M46"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="F47:F51"/>
-    <mergeCell ref="G47:G51"/>
-    <mergeCell ref="H47:H51"/>
-    <mergeCell ref="I47:I51"/>
-    <mergeCell ref="J47:J51"/>
-    <mergeCell ref="K47:K51"/>
-    <mergeCell ref="L47:L51"/>
-    <mergeCell ref="M47:M51"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="G42:G46"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="I42:I46"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="L6:L10"/>
-    <mergeCell ref="L11:L15"/>
-    <mergeCell ref="L16:L20"/>
-    <mergeCell ref="L21:L25"/>
-    <mergeCell ref="K11:K15"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="L26:L30"/>
-    <mergeCell ref="M6:M10"/>
-    <mergeCell ref="M11:M15"/>
-    <mergeCell ref="M16:M20"/>
-    <mergeCell ref="M21:M25"/>
-    <mergeCell ref="M26:M30"/>
-    <mergeCell ref="K26:K30"/>
-    <mergeCell ref="G11:G15"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="G21:G25"/>
-    <mergeCell ref="G26:G30"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="J11:J15"/>
-    <mergeCell ref="J16:J20"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="J6:J10"/>
-    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:G35"/>
+    <mergeCell ref="M31:M35"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="K31:K35"/>
+    <mergeCell ref="L31:L35"/>
+    <mergeCell ref="H31:H35"/>
     <mergeCell ref="B26:B30"/>
     <mergeCell ref="I21:I25"/>
     <mergeCell ref="I11:I15"/>
@@ -11164,14 +11060,118 @@
     <mergeCell ref="I16:I20"/>
     <mergeCell ref="H11:H15"/>
     <mergeCell ref="H16:H20"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="G31:G35"/>
-    <mergeCell ref="M31:M35"/>
-    <mergeCell ref="J31:J35"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="K31:K35"/>
-    <mergeCell ref="L31:L35"/>
-    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="M6:M10"/>
+    <mergeCell ref="M11:M15"/>
+    <mergeCell ref="M16:M20"/>
+    <mergeCell ref="M21:M25"/>
+    <mergeCell ref="M26:M30"/>
+    <mergeCell ref="K26:K30"/>
+    <mergeCell ref="G11:G15"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="G26:G30"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="J11:J15"/>
+    <mergeCell ref="J16:J20"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="J6:J10"/>
+    <mergeCell ref="J26:J30"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="L6:L10"/>
+    <mergeCell ref="L11:L15"/>
+    <mergeCell ref="L16:L20"/>
+    <mergeCell ref="L21:L25"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="L26:L30"/>
+    <mergeCell ref="J42:J46"/>
+    <mergeCell ref="K42:K46"/>
+    <mergeCell ref="L42:L46"/>
+    <mergeCell ref="M42:M46"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="G47:G51"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="J47:J51"/>
+    <mergeCell ref="K47:K51"/>
+    <mergeCell ref="L47:L51"/>
+    <mergeCell ref="M47:M51"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="G42:G46"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="J52:J56"/>
+    <mergeCell ref="K52:K56"/>
+    <mergeCell ref="L52:L56"/>
+    <mergeCell ref="M52:M56"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="G57:G61"/>
+    <mergeCell ref="H57:H61"/>
+    <mergeCell ref="I57:I61"/>
+    <mergeCell ref="J57:J61"/>
+    <mergeCell ref="K57:K61"/>
+    <mergeCell ref="L57:L61"/>
+    <mergeCell ref="M57:M61"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="G52:G56"/>
+    <mergeCell ref="H52:H56"/>
+    <mergeCell ref="I52:I56"/>
+    <mergeCell ref="J62:J66"/>
+    <mergeCell ref="K62:K66"/>
+    <mergeCell ref="L62:L66"/>
+    <mergeCell ref="M62:M66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="F67:F71"/>
+    <mergeCell ref="G67:G71"/>
+    <mergeCell ref="H67:H71"/>
+    <mergeCell ref="I67:I71"/>
+    <mergeCell ref="J67:J71"/>
+    <mergeCell ref="K67:K71"/>
+    <mergeCell ref="L67:L71"/>
+    <mergeCell ref="M67:M71"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="H62:H66"/>
+    <mergeCell ref="I62:I66"/>
+    <mergeCell ref="J72:J76"/>
+    <mergeCell ref="K72:K76"/>
+    <mergeCell ref="L72:L76"/>
+    <mergeCell ref="M72:M76"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="E83:E87"/>
+    <mergeCell ref="F83:F87"/>
+    <mergeCell ref="H83:H87"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="H72:H76"/>
+    <mergeCell ref="I72:I76"/>
+    <mergeCell ref="E88:E92"/>
+    <mergeCell ref="E93:E97"/>
+    <mergeCell ref="E98:E102"/>
+    <mergeCell ref="E103:E107"/>
+    <mergeCell ref="E108:E112"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="H88:H92"/>
+    <mergeCell ref="H93:H97"/>
+    <mergeCell ref="H98:H102"/>
+    <mergeCell ref="H103:H107"/>
+    <mergeCell ref="H108:H112"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="F93:F97"/>
+    <mergeCell ref="F98:F102"/>
+    <mergeCell ref="F103:F107"/>
+    <mergeCell ref="F108:F112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11182,512 +11182,530 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA79FE31-495E-457C-8098-40A17BF0017D}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="87" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="8">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="46">
         <f>AVERAGE(C2:C6)</f>
         <v>4.6399999999999997</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="46">
         <f>0.001/D2</f>
         <v>2.1551724137931037E-4</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43">
+      <c r="F2" s="15"/>
+      <c r="G2" s="47">
         <f>AVERAGE(F2:F6)</f>
         <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32">
+      <c r="A3" s="22"/>
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="8">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="15">
         <v>238</v>
       </c>
-      <c r="G3" s="43"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32">
+      <c r="A4" s="22"/>
+      <c r="B4" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="8">
         <v>4.5</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="15">
         <v>238</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32">
+      <c r="A5" s="22"/>
+      <c r="B5" s="8">
         <v>4</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="15">
         <v>238</v>
       </c>
-      <c r="G5" s="43"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32">
+      <c r="A6" s="22"/>
+      <c r="B6" s="8">
         <v>5</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="8">
         <v>4.8</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="A7" s="22">
         <v>2</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="8">
         <v>11.5</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="46">
         <f t="shared" ref="D7" si="0">AVERAGE(C7:C11)</f>
         <v>11.275</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="46">
         <f t="shared" ref="E7" si="1">0.001/D7</f>
         <v>8.869179600886918E-5</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43">
+      <c r="F7" s="15"/>
+      <c r="G7" s="47">
         <f t="shared" ref="G7" si="2">AVERAGE(F7:F11)</f>
         <v>306.33333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32">
+      <c r="A8" s="22"/>
+      <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="8">
         <v>11.2</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="15">
         <v>306</v>
       </c>
-      <c r="G8" s="43"/>
+      <c r="G8" s="47"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32">
+      <c r="A9" s="22"/>
+      <c r="B9" s="8">
         <v>3</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="8">
         <v>11.3</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="15">
         <v>306</v>
       </c>
-      <c r="G9" s="43"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32">
+      <c r="A10" s="22"/>
+      <c r="B10" s="8">
         <v>4</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="8">
         <v>11.1</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42">
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="15">
         <v>307</v>
       </c>
-      <c r="G10" s="43"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+      <c r="A12" s="22">
         <v>3</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="8">
         <v>10.6</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="46">
         <f t="shared" ref="D12" si="3">AVERAGE(C12:C16)</f>
         <v>10.125</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="46">
         <f t="shared" ref="E12" si="4">0.001/D12</f>
         <v>9.876543209876544E-5</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43">
+      <c r="F12" s="15"/>
+      <c r="G12" s="47">
         <f t="shared" ref="G12" si="5">AVERAGE(F12:F16)</f>
         <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32">
+      <c r="A13" s="22"/>
+      <c r="B13" s="8">
         <v>2</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="8">
         <v>10.3</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42">
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="15">
         <v>230</v>
       </c>
-      <c r="G13" s="43"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32">
+      <c r="A14" s="22"/>
+      <c r="B14" s="8">
         <v>3</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="15">
         <v>229</v>
       </c>
-      <c r="G14" s="43"/>
+      <c r="G14" s="47"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32">
+      <c r="A15" s="22"/>
+      <c r="B15" s="8">
         <v>4</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="8">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42">
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="15">
         <v>231</v>
       </c>
-      <c r="G15" s="43"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="A17" s="22">
         <v>4</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="8">
         <v>1</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="8">
         <v>15.7</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="46">
         <f t="shared" ref="D17" si="6">AVERAGE(C17:C21)</f>
         <v>15.15</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="46">
         <f t="shared" ref="E17" si="7">0.001/D17</f>
         <v>6.6006600660066002E-5</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43">
+      <c r="F17" s="15"/>
+      <c r="G17" s="47">
         <f t="shared" ref="G17" si="8">AVERAGE(F17:F21)</f>
         <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32">
+      <c r="A18" s="22"/>
+      <c r="B18" s="8">
         <v>2</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="8">
         <v>14.7</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42">
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="15">
         <v>360</v>
       </c>
-      <c r="G18" s="43"/>
+      <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32">
+      <c r="A19" s="22"/>
+      <c r="B19" s="8">
         <v>3</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="8">
         <v>15.3</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42">
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="15">
         <v>359</v>
       </c>
-      <c r="G19" s="43"/>
+      <c r="G19" s="47"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32">
+      <c r="A20" s="22"/>
+      <c r="B20" s="8">
         <v>4</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="8">
         <v>14.9</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42">
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="15">
         <v>361</v>
       </c>
-      <c r="G20" s="43"/>
+      <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
+      <c r="A22" s="22">
         <v>5</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="10">
         <v>1</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="8">
         <v>13.6</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="46">
         <f t="shared" ref="D22" si="9">AVERAGE(C22:C26)</f>
         <v>13.525</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="46">
         <f t="shared" ref="E22" si="10">0.001/D22</f>
         <v>7.3937153419593348E-5</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43">
+      <c r="F22" s="15"/>
+      <c r="G22" s="47">
         <f t="shared" ref="G22" si="11">AVERAGE(F22:F26)</f>
         <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="36">
+      <c r="A23" s="22"/>
+      <c r="B23" s="10">
         <v>2</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="8">
         <v>13.1</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="42">
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="15">
         <v>266</v>
       </c>
-      <c r="G23" s="43"/>
+      <c r="G23" s="47"/>
     </row>
     <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="36">
+      <c r="A24" s="22"/>
+      <c r="B24" s="10">
         <v>3</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="8">
         <v>13.9</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42">
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="15">
         <v>264</v>
       </c>
-      <c r="G24" s="43"/>
+      <c r="G24" s="47"/>
     </row>
     <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="36">
+      <c r="A25" s="22"/>
+      <c r="B25" s="10">
         <v>4</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="8">
         <v>13.5</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42">
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="15">
         <v>262</v>
       </c>
-      <c r="G25" s="43"/>
+      <c r="G25" s="47"/>
     </row>
     <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="47"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
+      <c r="A27" s="22">
         <v>6</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="8">
         <v>1</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="8">
         <v>13.8</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="46">
         <f t="shared" ref="D27" si="12">AVERAGE(C27:C31)</f>
         <v>13.95</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="46">
         <f t="shared" ref="E27" si="13">0.001/D27</f>
         <v>7.1684587813620072E-5</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43">
+      <c r="F27" s="15"/>
+      <c r="G27" s="47">
         <f t="shared" ref="G27" si="14">AVERAGE(F27:F31)</f>
         <v>407.66666666666669</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32">
+      <c r="A28" s="22"/>
+      <c r="B28" s="8">
         <v>2</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="8">
         <v>14.1</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42">
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="15">
         <v>407</v>
       </c>
-      <c r="G28" s="43"/>
+      <c r="G28" s="47"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32">
+      <c r="A29" s="22"/>
+      <c r="B29" s="8">
         <v>3</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="8">
         <v>13.7</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42">
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="15">
         <v>409</v>
       </c>
-      <c r="G29" s="43"/>
+      <c r="G29" s="47"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32">
+      <c r="A30" s="22"/>
+      <c r="B30" s="8">
         <v>4</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="8">
         <v>14.2</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42">
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="15">
         <v>407</v>
       </c>
-      <c r="G30" s="43"/>
+      <c r="G30" s="47"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="G17:G21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="E22:E26"/>
@@ -11696,22 +11714,6 @@
     <mergeCell ref="D27:D31"/>
     <mergeCell ref="E27:E31"/>
     <mergeCell ref="G27:G31"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="G7:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11721,8 +11723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B80CA5-D929-4321-8290-3F91F93937F7}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11731,45 +11733,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="87" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
       <c r="B2" s="7">
@@ -11781,40 +11783,40 @@
       <c r="D2" s="7">
         <v>16.100000000000001</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="52">
         <f t="shared" ref="E2:F2" si="0">AVERAGE(C2:C6)</f>
         <v>10.120000000000001</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="52">
         <f t="shared" si="0"/>
         <v>15.1</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="52">
         <f>0.001/E2</f>
         <v>9.8814229249011856E-5</v>
       </c>
-      <c r="H2" s="46">
+      <c r="H2" s="52">
         <v>378</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="49">
         <f>G2*9.04*10^(-9)*10^(14)</f>
         <v>89.328063241106705</v>
       </c>
-      <c r="J2" s="47">
+      <c r="J2" s="49">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(I2*10^(-14))))</f>
         <v>9.0540686699995317E-7</v>
       </c>
-      <c r="K2" s="47">
+      <c r="K2" s="49">
         <f>1+(E2/F2)</f>
         <v>1.6701986754966889</v>
       </c>
-      <c r="L2" s="54">
+      <c r="L2" s="48">
         <f>((190.13*J2*J2*J2*K2)/H2)*10^(19)</f>
         <v>6.2353140968573868</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="7">
         <v>2</v>
       </c>
@@ -11824,17 +11826,17 @@
       <c r="D3" s="7">
         <v>14.6</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="54"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="7">
         <v>3</v>
       </c>
@@ -11844,17 +11846,17 @@
       <c r="D4" s="7">
         <v>14.8</v>
       </c>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="54"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="7">
         <v>4</v>
       </c>
@@ -11864,17 +11866,17 @@
       <c r="D5" s="7">
         <v>14.2</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="54"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="48"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="7">
         <v>5</v>
       </c>
@@ -11884,17 +11886,17 @@
       <c r="D6" s="7">
         <v>15.8</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
       <c r="I6" s="51"/>
       <c r="J6" s="51"/>
       <c r="K6" s="51"/>
-      <c r="L6" s="54"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="30">
         <v>2</v>
       </c>
       <c r="B7" s="7">
@@ -11906,40 +11908,40 @@
       <c r="D7" s="7">
         <v>13.7</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="52">
         <f t="shared" ref="E7:F7" si="1">AVERAGE(C7:C11)</f>
         <v>8.5599999999999987</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="52">
         <f t="shared" si="1"/>
         <v>13.84</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="52">
         <f>0.001/E7</f>
         <v>1.1682242990654207E-4</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="52">
         <v>450</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="49">
         <f>G7*9.04*10^(-9)*10^(14)</f>
         <v>105.60747663551403</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="49">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(I7*10^(-14))))</f>
         <v>9.8785667208450748E-7</v>
       </c>
-      <c r="K7" s="47">
+      <c r="K7" s="49">
         <f>1+(E7/F7)</f>
         <v>1.6184971098265897</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="48">
         <f>((190.13*J7*J7*J7*K7)/H7)*10^(19)</f>
         <v>6.592222770654999</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="7">
         <v>2</v>
       </c>
@@ -11949,17 +11951,17 @@
       <c r="D8" s="7">
         <v>13.9</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="54"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="48"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="7">
         <v>3</v>
       </c>
@@ -11969,17 +11971,17 @@
       <c r="D9" s="7">
         <v>14.9</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="54"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="7">
         <v>4</v>
       </c>
@@ -11989,17 +11991,17 @@
       <c r="D10" s="7">
         <v>13.3</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="54"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="48"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="7">
         <v>5</v>
       </c>
@@ -12009,17 +12011,17 @@
       <c r="D11" s="7">
         <v>13.4</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
       <c r="I11" s="51"/>
       <c r="J11" s="51"/>
       <c r="K11" s="51"/>
-      <c r="L11" s="54"/>
+      <c r="L11" s="48"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="30">
         <v>3</v>
       </c>
       <c r="B12" s="7">
@@ -12031,40 +12033,40 @@
       <c r="D12" s="7">
         <v>7</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="52">
         <f t="shared" ref="E12:F12" si="2">AVERAGE(C12:C16)</f>
         <v>10.14</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="52">
         <f t="shared" si="2"/>
         <v>6.4</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="52">
         <f>0.001/E12</f>
         <v>9.8619329388560155E-5</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="52">
         <v>343</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="49">
         <f>G12*9.04*10^(-9)*10^(14)</f>
         <v>89.15187376725838</v>
       </c>
-      <c r="J12" s="47">
+      <c r="J12" s="49">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(I12*10^(-14))))</f>
         <v>9.0447518096317815E-7</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="49">
         <f>1+(E12/F12)</f>
         <v>2.5843750000000001</v>
       </c>
-      <c r="L12" s="54">
+      <c r="L12" s="48">
         <f>((190.13*J12*J12*J12*K12)/H12)*10^(19)</f>
         <v>10.599906196368407</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="7">
         <v>2</v>
       </c>
@@ -12074,17 +12076,17 @@
       <c r="D13" s="7">
         <v>6.4</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="54"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="7">
         <v>3</v>
       </c>
@@ -12094,17 +12096,17 @@
       <c r="D14" s="7">
         <v>6.2</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="54"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="48"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="7">
         <v>4</v>
       </c>
@@ -12114,17 +12116,17 @@
       <c r="D15" s="7">
         <v>6.2</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="54"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="48"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="7">
         <v>5</v>
       </c>
@@ -12134,17 +12136,17 @@
       <c r="D16" s="7">
         <v>6.2</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="51"/>
       <c r="J16" s="51"/>
       <c r="K16" s="51"/>
-      <c r="L16" s="54"/>
+      <c r="L16" s="48"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="30">
         <v>4</v>
       </c>
       <c r="B17" s="7">
@@ -12156,40 +12158,40 @@
       <c r="D17" s="7">
         <v>7</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="52">
         <f t="shared" ref="E17:F17" si="3">AVERAGE(C17:C21)</f>
         <v>11.260000000000002</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="52">
         <f t="shared" si="3"/>
         <v>6.8400000000000007</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="52">
         <f>0.001/E17</f>
         <v>8.8809946714031967E-5</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="52">
         <v>500</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="49">
         <f>G17*9.04*10^(-9)*10^(14)</f>
         <v>80.284191829484897</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="49">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(I17*10^(-14))))</f>
         <v>8.5633382046550626E-7</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="49">
         <f>1+(E17/F17)</f>
         <v>2.6461988304093569</v>
       </c>
-      <c r="L17" s="54">
+      <c r="L17" s="48">
         <f>((190.13*J17*J17*J17*K17)/H17)*10^(19)</f>
         <v>6.3187679522060334</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="7">
         <v>2</v>
       </c>
@@ -12199,17 +12201,17 @@
       <c r="D18" s="7">
         <v>6.6</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="54"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="48"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="7">
         <v>3</v>
       </c>
@@ -12219,17 +12221,17 @@
       <c r="D19" s="7">
         <v>6.8</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="54"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="48"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="7">
         <v>4</v>
       </c>
@@ -12239,17 +12241,17 @@
       <c r="D20" s="7">
         <v>7.1</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="54"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="48"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="7">
         <v>5</v>
       </c>
@@ -12259,17 +12261,17 @@
       <c r="D21" s="7">
         <v>6.7</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
       <c r="I21" s="51"/>
       <c r="J21" s="51"/>
       <c r="K21" s="51"/>
-      <c r="L21" s="54"/>
+      <c r="L21" s="48"/>
     </row>
     <row r="22" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="30">
         <v>5</v>
       </c>
       <c r="B22" s="6">
@@ -12281,40 +12283,40 @@
       <c r="D22" s="7">
         <v>2.5</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="52">
         <f t="shared" ref="E22:F22" si="4">AVERAGE(C22:C26)</f>
         <v>10.841999999999999</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="52">
         <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="52">
         <f>0.001/E22</f>
         <v>9.2233905183545479E-5</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="52">
         <v>484</v>
       </c>
-      <c r="I22" s="47">
+      <c r="I22" s="49">
         <f>G22*9.04*10^(-9)*10^(14)</f>
         <v>83.379450285925117</v>
       </c>
-      <c r="J22" s="47">
+      <c r="J22" s="49">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(I22*10^(-14))))</f>
         <v>8.7342563577793115E-7</v>
       </c>
-      <c r="K22" s="47">
+      <c r="K22" s="49">
         <f>1+(E22/F22)</f>
         <v>5.3367999999999993</v>
       </c>
-      <c r="L22" s="54">
+      <c r="L22" s="48">
         <f>((190.13*J22*J22*J22*K22)/H22)*10^(19)</f>
         <v>13.968958214497798</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="6">
         <v>2</v>
       </c>
@@ -12324,17 +12326,17 @@
       <c r="D23" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="54"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="48"/>
     </row>
     <row r="24" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="6">
         <v>3</v>
       </c>
@@ -12344,17 +12346,17 @@
       <c r="D24" s="7">
         <v>2.4</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="54"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="48"/>
     </row>
     <row r="25" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="6">
         <v>4</v>
       </c>
@@ -12364,17 +12366,17 @@
       <c r="D25" s="7">
         <v>2.6</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="54"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="48"/>
     </row>
     <row r="26" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="6">
         <v>5</v>
       </c>
@@ -12384,17 +12386,17 @@
       <c r="D26" s="7">
         <v>2.7</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
       <c r="I26" s="51"/>
       <c r="J26" s="51"/>
       <c r="K26" s="51"/>
-      <c r="L26" s="54"/>
+      <c r="L26" s="48"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
+      <c r="A27" s="30">
         <v>6</v>
       </c>
       <c r="B27" s="7">
@@ -12406,40 +12408,40 @@
       <c r="D27" s="7">
         <v>8.9</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="52">
         <f t="shared" ref="E27:F27" si="5">AVERAGE(C27:C31)</f>
         <v>19.919999999999998</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="52">
         <f t="shared" si="5"/>
         <v>8.36</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="52">
         <f>0.001/E27</f>
         <v>5.0200803212851415E-5</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="52">
         <v>400</v>
       </c>
-      <c r="I27" s="47">
+      <c r="I27" s="49">
         <f>G27*9.04*10^(-9)*10^(14)</f>
         <v>45.381526104417681</v>
       </c>
-      <c r="J27" s="47">
+      <c r="J27" s="49">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(I27*10^(-14))))</f>
         <v>6.3428044944580871E-7</v>
       </c>
-      <c r="K27" s="47">
+      <c r="K27" s="49">
         <f>1+(E27/F27)</f>
         <v>3.3827751196172247</v>
       </c>
-      <c r="L27" s="54">
+      <c r="L27" s="48">
         <f>((190.13*J27*J27*J27*K27)/H27)*10^(19)</f>
         <v>4.1030589846290964</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="7">
         <v>2</v>
       </c>
@@ -12449,17 +12451,17 @@
       <c r="D28" s="7">
         <v>7.7</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="54"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="48"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="7">
         <v>3</v>
       </c>
@@ -12469,17 +12471,17 @@
       <c r="D29" s="7">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="54"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="48"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="7">
         <v>4</v>
       </c>
@@ -12489,17 +12491,17 @@
       <c r="D30" s="7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="54"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="48"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="7">
         <v>5</v>
       </c>
@@ -12509,17 +12511,17 @@
       <c r="D31" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
       <c r="I31" s="51"/>
       <c r="J31" s="51"/>
       <c r="K31" s="51"/>
-      <c r="L31" s="54"/>
+      <c r="L31" s="48"/>
     </row>
     <row r="32" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
+      <c r="A32" s="30">
         <v>7</v>
       </c>
       <c r="B32" s="6">
@@ -12531,40 +12533,40 @@
       <c r="D32" s="7">
         <v>10.6</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="52">
         <f t="shared" ref="E32:F32" si="6">AVERAGE(C32:C36)</f>
         <v>16.54</v>
       </c>
-      <c r="F32" s="46">
+      <c r="F32" s="52">
         <f t="shared" si="6"/>
         <v>9.2600000000000016</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="52">
         <f>0.001/E32</f>
         <v>6.0459492140266024E-5</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="52">
         <v>410</v>
       </c>
-      <c r="I32" s="47">
+      <c r="I32" s="49">
         <f>G32*9.04*10^(-9)*10^(14)</f>
         <v>54.655380894800487</v>
       </c>
-      <c r="J32" s="47">
+      <c r="J32" s="49">
         <f>(-4.06*10^(-8))+(SQRT(4.06*4.06*10^(-16)+(I32*10^(-14))))</f>
         <v>6.9980675911825989E-7</v>
       </c>
-      <c r="K32" s="47">
+      <c r="K32" s="49">
         <f>1+(E32/F32)</f>
         <v>2.7861771058315332</v>
       </c>
-      <c r="L32" s="54">
+      <c r="L32" s="48">
         <f>((190.13*J32*J32*J32*K32)/H32)*10^(19)</f>
         <v>4.4280234201224369</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="6">
         <v>2</v>
       </c>
@@ -12574,17 +12576,17 @@
       <c r="D33" s="7">
         <v>9.9</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="54"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="48"/>
     </row>
     <row r="34" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="6">
         <v>3</v>
       </c>
@@ -12594,17 +12596,17 @@
       <c r="D34" s="7">
         <v>9.6</v>
       </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="54"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="48"/>
     </row>
     <row r="35" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="6">
         <v>4</v>
       </c>
@@ -12614,17 +12616,17 @@
       <c r="D35" s="7">
         <v>8.1</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="54"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="48"/>
     </row>
     <row r="36" spans="1:12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="6">
         <v>5</v>
       </c>
@@ -12634,28 +12636,53 @@
       <c r="D36" s="7">
         <v>8.1</v>
       </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
       <c r="I36" s="51"/>
       <c r="J36" s="51"/>
       <c r="K36" s="51"/>
-      <c r="L36" s="54"/>
+      <c r="L36" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="L32:L36"/>
-    <mergeCell ref="K27:K31"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="H32:H36"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="J32:J36"/>
-    <mergeCell ref="K32:K36"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="K2:K6"/>
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="J7:J11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="K7:K11"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="K17:K21"/>
+    <mergeCell ref="L17:L21"/>
     <mergeCell ref="J22:J26"/>
     <mergeCell ref="K22:K26"/>
     <mergeCell ref="L22:L26"/>
@@ -12672,42 +12699,17 @@
     <mergeCell ref="G22:G26"/>
     <mergeCell ref="H22:H26"/>
     <mergeCell ref="I22:I26"/>
-    <mergeCell ref="L12:L16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="K17:K21"/>
-    <mergeCell ref="L17:L21"/>
-    <mergeCell ref="K7:K11"/>
-    <mergeCell ref="L7:L11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="J12:J16"/>
-    <mergeCell ref="K12:K16"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="K2:K6"/>
-    <mergeCell ref="L2:L6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="J7:J11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="L32:L36"/>
+    <mergeCell ref="K27:K31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="H32:H36"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="J32:J36"/>
+    <mergeCell ref="K32:K36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
